--- a/biology/Zoologie/Heteromys/Heteromys.xlsx
+++ b/biology/Zoologie/Heteromys/Heteromys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Souris épineuses à poches
-Les souris épineuses à poches (Heteromys)[1] sont un genre de rongeurs de la famille des Heteromyidae qui regroupe les souris kangourou d'Amérique. Ce sont plus particulièrement des Souris épineuses à poches[1], c'est-à-dire à larges abajoues.
+Les souris épineuses à poches (Heteromys) sont un genre de rongeurs de la famille des Heteromyidae qui regroupe les souris kangourou d'Amérique. Ce sont plus particulièrement des Souris épineuses à poches, c'est-à-dire à larges abajoues.
 Ce genre a été décrit pour la première fois en 1817 par le zoologiste français Anselme Gaëtan Desmarest (1784-1838).
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Liste des sous-genres et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (2 juin 2016)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (2 juin 2016) :
 Heteromys oresterus
 sous-genre Heteromys (Heteromys)
 Heteromys anomalus
@@ -526,7 +540,7 @@
 Heteromys teleus
 sous-genre Heteromys (Xylomys)
 Heteromys nelsoni
-Selon ITIS      (2 juin 2016)[3] :
+Selon ITIS      (2 juin 2016) :
 sous-genre Heteromys (Heteromys) Desmarest, 1817
 Heteromys anomalus (Thompson, 1815)
 Heteromys australis Thomas, 1901
@@ -540,12 +554,12 @@
 Heteromys teleus Anderson and Jarrín-V., 2002
 sous-genre Heteromys (Xylomys) Merriam, 1902
 Heteromys nelsoni Merriam, 1902
-Selon NCBI  (2 juin 2016)[4] :
+Selon NCBI  (2 juin 2016) :
 Heteromys anomalus
 Heteromys australis
 Heteromys desmarestianus
 Heteromys gaumeri
-Heteromys goldmani - Souris à poches de Goldman[1], selon MSW c'est une sous-espèce : Heteromys desmarestianus goldmani
+Heteromys goldmani - Souris à poches de Goldman, selon MSW c'est une sous-espèce : Heteromys desmarestianus goldmani
 Heteromys nelsoni
 Heteromys nubicolens
 Heteromys oresterus</t>
